--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12402.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12402.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,42 +471,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Zalizniak</t>
+          <t>Ghazaal</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andrei</t>
+          <t>Batol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19.04.1974</t>
+          <t>22-06-1994</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Voronezh</t>
+          <t>Hama</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Lüdenscheid</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,27 +518,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nakshbandi</t>
+          <t>Zalizniak</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anas</t>
+          <t>Andrei</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10-05-1995</t>
+          <t>19.04.1974</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Damaskus</t>
+          <t>Voronezh</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>009</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Lüdenscheid</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,27 +565,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Demircan</t>
+          <t>Nakshbandi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Metin</t>
+          <t>Anas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11-10-1979</t>
+          <t>10-05-1995</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ahlen</t>
+          <t>Damaskus</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ahlen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,27 +612,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ato ali</t>
+          <t>Demircan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Abas</t>
+          <t>Metin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>25-08-1992</t>
+          <t>11-10-1979</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sinjar</t>
+          <t>Ahlen</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>011</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Ahlen</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,106 +659,106 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Ato ali</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Abas</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>25-08-1992</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sinjar</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Albukai</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Banan</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>01-09-1992</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Akraba/Syrien</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Anklam</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="E7" t="inlineStr">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Remscheid</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Othman</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Nadia</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>07-01-2000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Syrian</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Syrian Arab Republic</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Hagen</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -770,22 +770,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Shetman</t>
+          <t>Othman</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Baneen</t>
+          <t>Nadia</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>29-04-1998</t>
+          <t>07-01-2000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Nasiriya</t>
+          <t>Syrian</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -817,22 +817,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mofi Jude.</t>
+          <t>Shetman</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ofeimun</t>
+          <t>Baneen</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19-05-1974</t>
+          <t>29-04-1998</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kano</t>
+          <t>Al-Nasiriya</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -842,17 +842,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Duisburg</t>
+          <t>Hagen</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -864,42 +864,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Santos Rocha</t>
+          <t>Mofi Jude.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Isla Cristina</t>
+          <t>Ofeimun</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>07/09/1989</t>
+          <t>19-05-1974</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Kano</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Duisburg</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -911,42 +911,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kanayev</t>
+          <t>Santos Rocha</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Uvays</t>
+          <t>Isla Cristina</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>03.12.1977</t>
+          <t>07/09/1989</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Achkhoy-Martan</t>
+          <t>Itaguaí</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>006</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Porta Westfalica</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -958,22 +958,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Migun</t>
+          <t>Kanayev</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Samwel</t>
+          <t>Uvays</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>25.03.2002</t>
+          <t>03.12.1977</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Achkhoy-Martan</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -988,12 +988,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Wadersloh</t>
+          <t>Porta Westfalica</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1005,45 +1005,92 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Migun</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Samwel</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25.03.2002</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Kenya</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Kenya</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Wadersloh</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Ademi</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Bleon</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>06-01-2004</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Gostivar</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>North Macedonia</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Herten</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12402.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12402.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
